--- a/verify data/24 non-life 2003.xlsx
+++ b/verify data/24 non-life 2003.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBBEAA1-B22D-4DAD-9C51-71C4892C186C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F1D16-9BB6-4C52-BC36-F8D314C00BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Taiwan Fire</t>
   </si>
@@ -108,9 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
     <t>Direct written premiums</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +121,22 @@
   </si>
   <si>
     <t>Investment profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,12 +160,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,12 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -188,6 +208,1937 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>y1, y2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investment profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1228502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7851229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1574191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3355197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3144484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>834754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3925272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>909295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>555482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>371984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0C8-480D-9354-91450D271BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="825187455"/>
+        <c:axId val="825203119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="825187455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825203119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="825203119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825187455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>x1, x2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insurance expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1381822</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6699063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2592790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2184944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1453797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1352755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3531614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>650952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>651063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1085019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C67-4C1E-B4B4-9C4FAA4748A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="824470687"/>
+        <c:axId val="942231727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="824470687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="942231727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="942231727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824470687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1F3A6B-603B-4460-9453-5BD3C6B2D690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FB1049-9647-4911-815D-3A9AC33FD251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -478,567 +2429,567 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1178744</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>673512</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>7451757</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>856735</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>984143</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>681687</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1381822</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1352755</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>10020274</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1812894</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>1228502</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>834754</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1177494</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>592790</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>4776548</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>560244</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>293613</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>658428</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>601320</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>594259</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>3174851</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>371863</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>248709</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>177331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>6699063</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>3531614</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>37392862</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1753794</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>7851229</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>3925272</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2627707</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>668363</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>9747908</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>952326</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1713598</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>415058</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1942833</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>1443100</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>10685457</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>643412</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>2239593</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>439039</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3789001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1873530</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>17267266</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1134600</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>3899530</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>622868</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1567746</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>950432</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>11473162</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>546337</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>1043778</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>264098</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>1303249</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1298470</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>8210389</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>504528</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>1697941</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>554806</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>1962448</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>672414</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>7222378</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>643178</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>1486014</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>18259</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>2592790</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>650952</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>9434406</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>1118489</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>1574191</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>909295</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>2609941</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>1368802</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>13921464</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>811343</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>3609236</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>223047</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>1396002</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>988888</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>7396396</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>465509</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>1401200</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>332283</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>2184944</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>651063</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>10422297</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>749893</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>3355197</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>555482</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>1211716</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>415071</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>5606013</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>402881</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>854054</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>197947</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>1453797</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1085019</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>7695461</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>342489</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>3144484</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>371984</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>757515</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>547997</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>3631484</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>995620</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>692731</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>163927</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>159422</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>182338</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>1141950</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>483291</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>519121</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>46857</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>145442</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>53518</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>316829</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>131920</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>355624</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>26537</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>84171</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>26224</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>225888</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>40542</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>51950</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>6491</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>15993</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>10502</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>52063</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>14574</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>82141</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>4181</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>54693</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>28408</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>245910</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>49864</v>
       </c>
       <c r="F24">
         <v>0.1</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>18980</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>163297</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>235094</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>476419</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>644816</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>142370</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>16976</v>
       </c>
     </row>
@@ -1050,9 +3001,44 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f>CORREL(B:B, F:F)</f>
+        <v>0.93027363067639601</v>
+      </c>
+      <c r="F32">
+        <f>CORREL(B:B, G:G)</f>
+        <v>0.84059641776569771</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f>CORREL(C:C, F:F)</f>
+        <v>0.9034195679536009</v>
+      </c>
+      <c r="F33">
+        <f>CORREL(C:C, G:G)</f>
+        <v>0.84423934474428597</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/verify data/24 non-life 2003.xlsx
+++ b/verify data/24 non-life 2003.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F1D16-9BB6-4C52-BC36-F8D314C00BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F946B-13D3-4EE2-B7BF-494133E48839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,29 +326,41 @@
               <c:f>工作表1!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>984143</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1228502</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7851229</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>293613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3899530</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1574191</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3609236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1401200</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3355197</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>3144484</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>519121</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>355624</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>82141</c:v>
                 </c:pt>
               </c:numCache>
@@ -359,29 +371,41 @@
               <c:f>工作表1!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>681687</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>834754</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3925272</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>658428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>622868</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>909295</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>223047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332283</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>555482</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>371984</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>46857</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>26537</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>4181</c:v>
                 </c:pt>
               </c:numCache>
@@ -395,6 +419,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -697,29 +722,41 @@
               <c:f>工作表1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1178744</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1381822</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6699063</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>1177494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3789001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2592790</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>2609941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1396002</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2184944</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>1453797</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>159422</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>145442</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>15993</c:v>
                 </c:pt>
               </c:numCache>
@@ -730,29 +767,41 @@
               <c:f>工作表1!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>673512</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1352755</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3531614</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>592790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1873530</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>650952</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>1368802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>988888</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>651063</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>1085019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>182338</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>53518</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>10502</c:v>
                 </c:pt>
               </c:numCache>
@@ -2068,16 +2117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2105,15 +2154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>1120140</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2406,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2441,7 +2490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2536,7 @@
         <v>834754</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2582,7 @@
         <v>177331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2602,7 +2651,7 @@
         <v>439039</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +2766,7 @@
         <v>909295</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -2740,7 +2789,7 @@
         <v>223047</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>

--- a/verify data/24 non-life 2003.xlsx
+++ b/verify data/24 non-life 2003.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F946B-13D3-4EE2-B7BF-494133E48839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF2B06D-F5E3-45B1-B791-B538A04EC90C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Chung Kuo</t>
   </si>
   <si>
-    <t>Tai Ping</t>
-  </si>
-  <si>
     <t>China Mariners</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +134,10 @@
   </si>
   <si>
     <t>y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tai Ping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,41 +327,29 @@
               <c:f>工作表1!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>984143</c:v>
+                  <c:v>1228502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1228502</c:v>
+                  <c:v>7851229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293613</c:v>
+                  <c:v>1574191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3899530</c:v>
+                  <c:v>3355197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1574191</c:v>
+                  <c:v>3144484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3609236</c:v>
+                  <c:v>519121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1401200</c:v>
+                  <c:v>355624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3355197</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3144484</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>519121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>355624</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>82141</c:v>
                 </c:pt>
               </c:numCache>
@@ -371,41 +360,29 @@
               <c:f>工作表1!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>681687</c:v>
+                  <c:v>834754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>834754</c:v>
+                  <c:v>3925272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>658428</c:v>
+                  <c:v>909295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>622868</c:v>
+                  <c:v>555482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>909295</c:v>
+                  <c:v>371984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223047</c:v>
+                  <c:v>46857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>332283</c:v>
+                  <c:v>26537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>555482</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>371984</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46857</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26537</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>4181</c:v>
                 </c:pt>
               </c:numCache>
@@ -419,7 +396,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -722,41 +698,29 @@
               <c:f>工作表1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1178744</c:v>
+                  <c:v>1381822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1381822</c:v>
+                  <c:v>6699063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1177494</c:v>
+                  <c:v>2592790</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3789001</c:v>
+                  <c:v>2184944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2592790</c:v>
+                  <c:v>1453797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2609941</c:v>
+                  <c:v>159422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1396002</c:v>
+                  <c:v>145442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2184944</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1453797</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>159422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>145442</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>15993</c:v>
                 </c:pt>
               </c:numCache>
@@ -767,41 +731,29 @@
               <c:f>工作表1!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>673512</c:v>
+                  <c:v>1352755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1352755</c:v>
+                  <c:v>3531614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>592790</c:v>
+                  <c:v>650952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1873530</c:v>
+                  <c:v>651063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>650952</c:v>
+                  <c:v>1085019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1368802</c:v>
+                  <c:v>182338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>988888</c:v>
+                  <c:v>53518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>651063</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1085019</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>182338</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>53518</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>10502</c:v>
                 </c:pt>
               </c:numCache>
@@ -2455,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2478,19 +2430,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2536,9 +2488,9 @@
         <v>834754</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>1177494</v>
@@ -2561,7 +2513,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>601320</v>
@@ -2582,9 +2534,9 @@
         <v>177331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>6699063</v>
@@ -2607,7 +2559,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>2627707</v>
@@ -2630,7 +2582,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>1942833</v>
@@ -2651,9 +2603,9 @@
         <v>439039</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>3789001</v>
@@ -2676,7 +2628,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>1567746</v>
@@ -2699,7 +2651,7 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>1303249</v>
@@ -2722,7 +2674,7 @@
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>1962448</v>
@@ -2745,7 +2697,7 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>2592790</v>
@@ -2766,9 +2718,9 @@
         <v>909295</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>2609941</v>
@@ -2789,9 +2741,9 @@
         <v>223047</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1396002</v>
@@ -2814,7 +2766,7 @@
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>2184944</v>
@@ -2837,7 +2789,7 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>1211716</v>
@@ -2860,7 +2812,7 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>1453797</v>
@@ -2883,7 +2835,7 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>757515</v>
@@ -2906,7 +2858,7 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>159422</v>
@@ -2929,7 +2881,7 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>145442</v>
@@ -2952,7 +2904,7 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>84171</v>
@@ -2975,7 +2927,7 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>15993</v>
@@ -2998,7 +2950,7 @@
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>54693</v>
@@ -3021,7 +2973,7 @@
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>163297</v>
@@ -3052,15 +3004,15 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
         <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <f>CORREL(B:B, F:F)</f>
@@ -3073,7 +3025,7 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <f>CORREL(C:C, F:F)</f>
